--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_8.xlsx
@@ -518,496 +518,496 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_8</t>
+          <t>model_10_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999919155286734</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991169140330087</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999712490817524</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999711204151254</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999731292283609</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G2" t="n">
-        <v>7.546499116128269e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008243219871924601</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I2" t="n">
-        <v>2.489612087817377e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.394700592100008e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>1.942156339958693e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002447295462770638</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002747089207894106</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000038805462368</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002864038482732766</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P2" t="n">
-        <v>81.58885359094067</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q2" t="n">
-        <v>116.9362525121185</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_7</t>
+          <t>model_10_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999919876523508</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991168773558726</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999723376500781</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999973837854703</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999746891632096</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G3" t="n">
-        <v>7.479174829175639e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008243562236890679</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I3" t="n">
-        <v>2.39535030324564e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>1.263465513607715e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>1.829407908426678e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002491340220764253</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002734808005907479</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000038459268716</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002851234444551975</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P3" t="n">
-        <v>81.60677617803677</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.9541750992146</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_9</t>
+          <t>model_10_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999918167993456</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991168485990318</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999702412659537</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999686130068894</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999971687834565</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G4" t="n">
-        <v>7.638658609969927e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008243830669376661</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I4" t="n">
-        <v>2.576881314253653e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>1.515792490283133e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>2.046336902268393e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000240534000023841</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002763812332624979</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000039279363141</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002881473545505072</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P4" t="n">
-        <v>81.56457708962428</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q4" t="n">
-        <v>116.9119760108021</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_10</t>
+          <t>model_10_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999917322973908</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991167367521063</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999694370514371</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999966463915913</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999704881114511</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G5" t="n">
-        <v>7.717537475447376e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008244874711331062</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I5" t="n">
-        <v>2.646520209415846e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.619579939801522e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>2.133050074608684e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002360984390296066</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002778045621556164</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000039684972524</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002896312775013028</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P5" t="n">
-        <v>81.54403044935364</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.8914293705315</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_6</t>
+          <t>model_10_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999920868858083</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991167028005059</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999737839044874</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999770680772385</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999766346741512</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G6" t="n">
-        <v>7.386544752416825e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008245191634617966</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I6" t="n">
-        <v>2.27011560887574e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>1.107466273918137e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>1.688790941396939e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002526559077524296</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00271781985282631</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00003798294812</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002833523070623816</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P6" t="n">
-        <v>81.63170097905243</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.9790999002302</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_11</t>
+          <t>model_10_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999916547819612</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991165967430407</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999687796204447</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999645920150071</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999694689203696</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G7" t="n">
-        <v>7.789894726506642e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008246181634502239</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I7" t="n">
-        <v>2.703448761450285e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.709980868804859e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>2.206714815127572e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002320160456129586</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002791038288255222</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000040057046586</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002909858566431993</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P7" t="n">
-        <v>81.52536642420039</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q7" t="n">
-        <v>116.8727653453782</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_5</t>
+          <t>model_10_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999921497730582</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991164107724236</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999753851001095</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999805318326059</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999787510186001</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G8" t="n">
-        <v>7.32784226501843e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008247917588579631</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I8" t="n">
-        <v>2.131464177249597e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>9.401888811559458e-06</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>1.535826529202771e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002558363997854675</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002706998756006074</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000037681089321</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002822241297309184</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P8" t="n">
-        <v>81.64765891158861</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q8" t="n">
-        <v>116.9950578327664</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_12</t>
+          <t>model_10_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999915881989846</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991164088415713</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999682600239882</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999629871755343</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999968621516823</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G9" t="n">
-        <v>7.852047012449538e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008247935612239878</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I9" t="n">
-        <v>2.748441885077197e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>1.787484426161344e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>2.267963155619271e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002287633771078178</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002802150426449219</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000040376644874</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002921443771354205</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P9" t="n">
-        <v>81.50947258849268</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.8568715096705</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_13</t>
+          <t>model_10_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999915223334099</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991162401833422</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999678043540561</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999615910900542</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999678821483683</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G10" t="n">
-        <v>7.913529635313075e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008249509962774932</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I10" t="n">
-        <v>2.787899455133582e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.854906491064851e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>2.321402973099216e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002256595868593824</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002813099649019401</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000040692799632</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002932859124997215</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P10" t="n">
-        <v>81.49387330254831</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q10" t="n">
-        <v>116.8412722237261</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="11">
@@ -1017,877 +1017,877 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999914541821681</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991160546559134</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999674051769769</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999603251977879</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999672201161219</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G11" t="n">
-        <v>7.977145828114283e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000825124177988663</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I11" t="n">
-        <v>2.822465171362129e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.916041050340072e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>2.369253110851101e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002228650622284933</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002824384150237762</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000041019925593</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002944624030794579</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P11" t="n">
-        <v>81.47785975226002</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.8252586734378</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_4</t>
+          <t>model_10_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999922312208834</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991159136322671</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999774243955335</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999845212773869</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999813054209207</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G12" t="n">
-        <v>7.251814295370408e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008252558173721279</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I12" t="n">
-        <v>1.954876615960459e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>7.475240273425985e-06</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>1.351200321651529e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002571649412042861</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002692919288684755</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00003729013976</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002807562437915482</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P12" t="n">
-        <v>81.66851774553422</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.015916666712</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_15</t>
+          <t>model_10_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999991404002431</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.999115855688544</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999967106502427</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999593076301184</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999667012488733</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G13" t="n">
-        <v>8.023986409994753e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008253099052943106</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I13" t="n">
-        <v>2.848328128616757e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.965183108209877e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>2.406755618413317e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002200838784797159</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002832664189415109</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000041260788331</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00295325656838175</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P13" t="n">
-        <v>81.46615040195144</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q13" t="n">
-        <v>116.8135493231293</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_16</t>
+          <t>model_10_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999913508701267</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991156639105959</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999966840564897</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99995836540043</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999662271611943</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G14" t="n">
-        <v>8.073583083804551e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008254889215907721</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I14" t="n">
-        <v>2.871356307528636e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.010686819910172e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>2.441021563719404e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00021758526663544</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002841405124899396</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000041515823392</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002962369623585834</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P14" t="n">
-        <v>81.45382634750003</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.8012252686778</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_17</t>
+          <t>model_10_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999913022901656</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991154791075896</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999666118614242</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999575560557883</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999658197724968</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G15" t="n">
-        <v>8.118930345079457e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008256614270852327</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I15" t="n">
-        <v>2.891160298682112e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.049773027554211e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>2.470466663118161e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000215249870200971</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002849373675929406</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000041749007205</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002970677412330367</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P15" t="n">
-        <v>81.44262428673902</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.7900232079168</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_18</t>
+          <t>model_10_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999912506114655</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991153037781886</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999966392408554</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999568108200767</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999654393429374</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G16" t="n">
-        <v>8.167170143168275e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008258250893850127</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I16" t="n">
-        <v>2.910163257603565e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>2.085763180899645e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>2.497963219251605e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002131674108334454</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002857826121926993</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000041997064965</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002979489696453046</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P16" t="n">
-        <v>81.43077616159626</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.7781750827741</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_19</t>
+          <t>model_10_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999912062441321</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991151505736653</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999662167565454</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999561694800316</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999965119861153</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G17" t="n">
-        <v>8.208585101490101e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008259680990825824</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I17" t="n">
-        <v>2.925373393158133e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>2.116735833193914e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>2.521054613176024e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002112312180272489</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002865062844247941</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000042210028166</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002987034501025277</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P17" t="n">
-        <v>81.42065997556372</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.7680588967415</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_3</t>
+          <t>model_10_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999922604131825</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991151445678267</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999797241988178</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999887403219823</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999984092579992</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G18" t="n">
-        <v>7.224564565625531e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008259737052693588</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I18" t="n">
-        <v>1.755731044096356e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>5.437709602258213e-06</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>1.149751002161089e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002566885975253955</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002687855012017116</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000037150016724</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002802282564505603</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P18" t="n">
-        <v>81.67604718703089</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.0234461082087</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_20</t>
+          <t>model_10_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999911654723518</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991149936960879</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999660647341763</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999556075638077</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999648410683926</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G19" t="n">
-        <v>8.246643768682038e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008261145374149195</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I19" t="n">
-        <v>2.938537380629712e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>2.143872819179425e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>2.541205099904569e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002094482113380641</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00287169701895622</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000042405732712</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002993951106285522</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P19" t="n">
-        <v>81.41140851261412</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q19" t="n">
-        <v>116.7588074337919</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_21</t>
+          <t>model_10_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999911352165635</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991148452332285</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999659610782671</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999551492211877</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999646258507247</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G20" t="n">
-        <v>8.274886219029726e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008262531209774375</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I20" t="n">
-        <v>2.947513198456021e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.166007857699051e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>2.556760528077536e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002077665110748766</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00287661019587808</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000042550960495</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002999073447320625</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P20" t="n">
-        <v>81.40457077352374</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.7519696947016</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_22</t>
+          <t>model_10_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999911030213559</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991147116787584</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999658522547469</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999547287542666</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999644201911959</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G21" t="n">
-        <v>8.304939032035241e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008263777882128719</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I21" t="n">
-        <v>2.956936492312526e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>2.186313740429848e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>2.571625116371187e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002062618088963469</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002881829112219398</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000042705497492</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003004514543735238</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P21" t="n">
-        <v>81.39732031208305</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.7447192332609</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_23</t>
+          <t>model_10_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999910728564134</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991145850649923</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999657561382352</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999543528111181</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999642370181909</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G22" t="n">
-        <v>8.33309668177773e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008264959766058808</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I22" t="n">
-        <v>2.965259455326825e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>2.20446940763144e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>2.584864431479132e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002049029808794462</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00288671035640532</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000042850289216</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003009603592591724</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P22" t="n">
-        <v>81.39055084070819</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q22" t="n">
-        <v>116.737949761886</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_24</t>
+          <t>model_10_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999910448876046</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991144667248745</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999656715004362</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999540171924838</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999640741930221</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G23" t="n">
-        <v>8.359204337111577e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008266064419113093</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I23" t="n">
-        <v>2.972588448637567e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>2.22067765681268e-05</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>2.596633052725123e-05</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002036740063453371</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002891228862804115</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000042984539498</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003014314461162513</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P23" t="n">
-        <v>81.38429462076749</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q23" t="n">
-        <v>116.7316935419453</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_2</t>
+          <t>model_10_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999920948093768</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991139277647101</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999818943600128</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999926027376874</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999866829359437</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G24" t="n">
-        <v>7.379148449040177e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000827109537567178</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I24" t="n">
-        <v>1.567811496718912e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.57240804260729e-06</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>9.625261504898204e-06</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002561254454787416</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002716458806799797</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000037944914991</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002832104082050201</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P24" t="n">
-        <v>81.63370462463665</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.9811035458145</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_1</t>
+          <t>model_10_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999917369936335</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991121753540657</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999840393536128</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999961245712481</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999891444327147</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G25" t="n">
-        <v>7.713153739020348e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008287453359817798</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I25" t="n">
-        <v>1.382071272739442e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>1.87158603506256e-06</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>7.846149381228489e-06</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000253819346480285</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002777256513003498</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000039662430559</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002895490072475595</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P25" t="n">
-        <v>81.54516681751343</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q25" t="n">
-        <v>116.8925657386912</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_0</t>
+          <t>model_10_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999910791515098</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991098425949214</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999859903338528</v>
+        <v>0.9999581968445401</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999987439702965</v>
+        <v>0.9999989631470065</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999911882212205</v>
+        <v>0.9999869837050309</v>
       </c>
       <c r="G26" t="n">
-        <v>8.327220485628124e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008309228642466791</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I26" t="n">
-        <v>1.213131138487279e-05</v>
+        <v>2.868734018467595e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>6.065826010522697e-07</v>
+        <v>1.215724759878898e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>6.368946992962527e-06</v>
+        <v>1.495153247227742e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002500043284031729</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002885692375432302</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000042820072753</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O26" t="n">
-        <v>0.003008542274061174</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P26" t="n">
-        <v>81.39196166532436</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q26" t="n">
-        <v>116.7393605865022</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
   </sheetData>
